--- a/TP 7 Churn RNS/model_weights.xlsx
+++ b/TP 7 Churn RNS/model_weights.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0005004857084713876</v>
+        <v>0.000730309053324163</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001465483801439404</v>
+        <v>-5.919935938436538e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0002832221798598766</v>
+        <v>0.001852546818554401</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.001328270765952766</v>
+        <v>0.0008447592845186591</v>
       </c>
       <c r="F2" t="n">
-        <v>3.372097853571177e-05</v>
+        <v>0.0003252683382015675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001281091244891286</v>
+        <v>-0.3920746743679047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008240420138463378</v>
+        <v>0.0006870732759125531</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4580757021903992</v>
+        <v>0.0003110097022727132</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.818655437091365e-05</v>
+        <v>-0.0006240233196876943</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0008821803494356573</v>
+        <v>0.001000533578917384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007530500297434628</v>
+        <v>-1.94534077309072e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0008422323735430837</v>
+        <v>-0.002687552478164434</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001720943138934672</v>
+        <v>-0.0005811991868540645</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0008871835889294744</v>
+        <v>-0.0001919610658660531</v>
       </c>
       <c r="P2" t="n">
-        <v>7.793196709826589e-05</v>
+        <v>-0.0003142318455502391</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.001905263168737292</v>
+        <v>-0.0003673458704724908</v>
       </c>
     </row>
     <row r="3">
@@ -582,547 +582,492 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003800953738391399</v>
+        <v>0.0005790014402009547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004550149664282799</v>
+        <v>-0.001803457736968994</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.002494482789188623</v>
+        <v>-0.0006059168372303247</v>
       </c>
       <c r="E3" t="n">
-        <v>7.33743654564023e-05</v>
+        <v>0.002644761232659221</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001907121622934937</v>
+        <v>0.001078674220480025</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.000542551395483315</v>
+        <v>0.08017455041408539</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0004664354783017188</v>
+        <v>0.001388068660162389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06633094698190689</v>
+        <v>0.0004813798004761338</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001088850200176239</v>
+        <v>-0.0008162796730175614</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005844548577442765</v>
+        <v>0.001925721997395158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005332962027750909</v>
+        <v>0.001740397186949849</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000766589364502579</v>
+        <v>0.001026618760079145</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002566554583609104</v>
+        <v>-0.0001202898565679789</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001213436247780919</v>
+        <v>-8.678401354700327e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001380714122205973</v>
+        <v>0.00128047214820981</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0001333829131908715</v>
+        <v>-0.002436277223750949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Age Group</t>
+          <t>Tariff Plan</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0008331707213073969</v>
+        <v>-0.00162745441775769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001896461471915245</v>
+        <v>0.001997584942728281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007570304442197084</v>
+        <v>-0.001037501730024815</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004470758140087128</v>
+        <v>0.001953564584255219</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0002834676415659487</v>
+        <v>0.0004827526863664389</v>
       </c>
       <c r="G4" t="n">
-        <v>7.270911009982228e-05</v>
+        <v>-0.00709342397749424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001560682314448059</v>
+        <v>0.0005893566412851214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01041226927191019</v>
+        <v>0.001939388923346996</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0009438687120564282</v>
+        <v>-0.0001831846311688423</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002649808302521706</v>
+        <v>0.0002079488476738334</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0007916740723885596</v>
+        <v>-0.001617792062461376</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0003944743948522955</v>
+        <v>0.0002971686481032521</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.001364436000585556</v>
+        <v>-0.001569065963849425</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0009288504952564836</v>
+        <v>-0.000150195206515491</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0006531043327413499</v>
+        <v>-0.0006830141646787524</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.00196731137111783</v>
+        <v>-0.002878992818295956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tariff Plan</t>
+          <t>Call  Failure</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000167203281307593</v>
+        <v>-0.0006082092877477407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008560129208490252</v>
+        <v>-0.00113423983566463</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001647465047426522</v>
+        <v>0.001061464427039027</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00246176915243268</v>
+        <v>-0.001226565334945917</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001726605463773012</v>
+        <v>-0.00105680082924664</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000796654901932925</v>
+        <v>-0.08672844618558884</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002913162112236023</v>
+        <v>0.001042600953951478</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005764734465628862</v>
+        <v>0.0008009874727576971</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003099915338680148</v>
+        <v>0.000281514716334641</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002368068526266143</v>
+        <v>-0.0005517564131878316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002893612720072269</v>
+        <v>-0.001056861015968025</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.001135272090323269</v>
+        <v>-0.000210307611268945</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0001857408788055182</v>
+        <v>-0.001297878101468086</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.001676981570199132</v>
+        <v>-3.622542135417461e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.001053929561749101</v>
+        <v>-0.0002740228082984686</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0003116590087302029</v>
+        <v>-0.00191790540702641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Call  Failure</t>
+          <t>Subscription  Length</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009520524181425571</v>
+        <v>-0.0005019495729357004</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002406983403488994</v>
+        <v>0.0003110440738964826</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001996309729292989</v>
+        <v>0.000984437414444983</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0004470739513635635</v>
+        <v>0.002485002623870969</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00126005313359201</v>
+        <v>3.776064841076732e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0005014320486225188</v>
+        <v>0.01223472692072392</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.359602902084589e-05</v>
+        <v>-0.0004556522471830249</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1323887258768082</v>
+        <v>-0.0009393318323418498</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.534667383879423e-05</v>
+        <v>-0.001886939629912376</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0009233325836248696</v>
+        <v>-0.001746772555634379</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.000270730466581881</v>
+        <v>-0.001431898446753621</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.000968409120105207</v>
+        <v>-0.00109458202496171</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0007893012370914221</v>
+        <v>-0.0003123258939012885</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.002771561034023762</v>
+        <v>0.001188910566270351</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003672691527754068</v>
+        <v>0.003936855588108301</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.001767940586432815</v>
+        <v>-0.00175762502476573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Subscription  Length</t>
+          <t>Seconds of Use</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005241528851911426</v>
+        <v>-0.001157481223344803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004102339153178036</v>
+        <v>0.001915023429319263</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002341740764677525</v>
+        <v>-0.0009067213395610452</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003725999034941196</v>
+        <v>-0.0001152417389675975</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.001219209749251604</v>
+        <v>0.0006140348268672824</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002073896117508411</v>
+        <v>-0.001975458348169923</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001271551474928856</v>
+        <v>-0.001061425893567502</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02525641769170761</v>
+        <v>-0.001488808775320649</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0007770815282128751</v>
+        <v>-0.001634103711694479</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.000513710081577301</v>
+        <v>-0.0003727773437276483</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0001011387212201953</v>
+        <v>-0.001511181588284671</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0006482582539319992</v>
+        <v>-0.002917390782386065</v>
       </c>
       <c r="N7" t="n">
-        <v>6.060535088181496e-05</v>
+        <v>-0.0010015171719715</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0008035229984670877</v>
+        <v>-0.001260108314454556</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.001048308913595974</v>
+        <v>0.0001293348032049835</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0004720253637060523</v>
+        <v>-0.001215553609654307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Seconds of Use</t>
+          <t>Frequency of use</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.003440756816416979</v>
+        <v>0.00165268499404192</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00134997395798564</v>
+        <v>-0.001467232475988567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00186712306458503</v>
+        <v>0.001789413043297827</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0001371977850794792</v>
+        <v>-0.00105212174821645</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0005309701664373279</v>
+        <v>0.001500359619967639</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0004315634723752737</v>
+        <v>0.176037535071373</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0003833798691630363</v>
+        <v>0.0005890639731660485</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007905051112174988</v>
+        <v>0.0009943727636709809</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001964042894542217</v>
+        <v>0.001387383323162794</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005766552640125155</v>
+        <v>0.001195354387164116</v>
       </c>
       <c r="L8" t="n">
-        <v>7.311231456696987e-05</v>
+        <v>0.00181229820009321</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002040719147771597</v>
+        <v>0.0008674451964907348</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.002703138394281268</v>
+        <v>0.0009289673762395978</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.001196512952446938</v>
+        <v>0.001072119339369237</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001161956926807761</v>
+        <v>0.001969306264072657</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0002035798388533294</v>
+        <v>0.001756021054461598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Frequency of use</t>
+          <t>Frequency of SMS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0003420423599891365</v>
+        <v>0.001374301966279745</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0007313754176720977</v>
+        <v>-0.000566628878004849</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001876525115221739</v>
+        <v>0.001501317601650953</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0001325179619016126</v>
+        <v>0.00132769753690809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001103674527257681</v>
+        <v>-0.0007791283424012363</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0004226560704410076</v>
+        <v>0.1132290884852409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003612623841036111</v>
+        <v>-3.535969881340861e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.175344705581665</v>
+        <v>-0.0002778824418783188</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0005423801485449076</v>
+        <v>-0.00100984878372401</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0017204504692927</v>
+        <v>0.0002309115952812135</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003399288398213685</v>
+        <v>0.0007770509691908956</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00130704278126359</v>
+        <v>0.001187465386465192</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0009650331339798868</v>
+        <v>0.0004089504363946617</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.001991286873817444</v>
+        <v>-0.000988322775810957</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.003896736772730947</v>
+        <v>-0.001464693457819521</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.000659263925626874</v>
+        <v>0.0004816280561499298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Frequency of SMS</t>
+          <t>Distinct Called Numbers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002323455410078168</v>
+        <v>0.00109869847074151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006783126736991107</v>
+        <v>-1.014639565255493e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0001256258692592382</v>
+        <v>-0.0008966992027126253</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.000785835727583617</v>
+        <v>0.003601896343752742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007452438585460186</v>
+        <v>0.001988823525607586</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0001286906190216541</v>
+        <v>0.05168676748871803</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004166460712440312</v>
+        <v>3.351829946041107e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09261391311883926</v>
+        <v>-0.0003495619748719037</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0009864892344921827</v>
+        <v>0.0003411527432035655</v>
       </c>
       <c r="K10" t="n">
-        <v>5.796609912067652e-05</v>
+        <v>-0.0001293069217354059</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009388483595103025</v>
+        <v>1.19024480227381e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>-6.269349250942469e-05</v>
+        <v>-9.544810745865107e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0001366096548736095</v>
+        <v>-0.00019807432545349</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.001143081346526742</v>
+        <v>0.001487609813921154</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.003258073702454567</v>
+        <v>0.001576215378008783</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.712163793854415e-05</v>
+        <v>-0.00153124111238867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Distinct Called Numbers</t>
+          <t>Customer Value</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003063168842345476</v>
+        <v>0.0003089758101850748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003452787641435862</v>
+        <v>-0.0004530785954557359</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002057260368019342</v>
+        <v>0.00187770277261734</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002256191801279783</v>
+        <v>-0.002546693896874785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001435234909877181</v>
+        <v>0.0006855647079646587</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0004616371588781476</v>
+        <v>0.0196679700165987</v>
       </c>
       <c r="H11" t="n">
-        <v>1.017421891447157e-05</v>
+        <v>-0.0003813981311395764</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03642625734210014</v>
+        <v>0.001724701491184533</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.001054010586813092</v>
+        <v>0.0009257839410565794</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002345683285966516</v>
+        <v>-0.0004454322042874992</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006384538137353957</v>
+        <v>0.0005887936567887664</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0007916977046988904</v>
+        <v>0.0008218650473281741</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0004695055540651083</v>
+        <v>-0.0006070240051485598</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001576292212121189</v>
+        <v>-0.0007336654234677553</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.134956255555153e-05</v>
+        <v>0.0001418401370756328</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.002226623706519604</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Customer Value</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.0005242498009465635</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.001823298167437315</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.001322663389146328</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.0006099497550167143</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001348930527456105</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.002162476070225239</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.0008491742191836238</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0139926616102457</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0002964655286632478</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-3.426719922572374e-05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.0002252278500236571</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.0006326815928332508</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0001509635476395488</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.001233485643751919</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0.0001208303729072213</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.002781839575618505</v>
+        <v>-4.527387136477046e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3609911501407623</v>
+        <v>-0.06740949302911758</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07165605574846268</v>
+        <v>-0.1431668251752853</v>
       </c>
     </row>
     <row r="4">
@@ -1172,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07662782818078995</v>
+        <v>-0.1480735242366791</v>
       </c>
     </row>
     <row r="5">
@@ -1180,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1411547511816025</v>
+        <v>-0.1921797096729279</v>
       </c>
     </row>
     <row r="6">
@@ -1188,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2523778676986694</v>
+        <v>-0.05091622471809387</v>
       </c>
     </row>
     <row r="7">
@@ -1196,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03289422020316124</v>
+        <v>0.6677544713020325</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0437324121594429</v>
+        <v>-0.1361947357654572</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7509719729423523</v>
+        <v>-0.06186994910240173</v>
       </c>
     </row>
     <row r="10">
@@ -1220,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.03283519297838211</v>
+        <v>-0.03260345384478569</v>
       </c>
     </row>
     <row r="11">
@@ -1228,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1711856722831726</v>
+        <v>-0.08551769703626633</v>
       </c>
     </row>
     <row r="12">
@@ -1236,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.04698677733540535</v>
+        <v>-0.09416865557432175</v>
       </c>
     </row>
     <row r="13">
@@ -1244,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1287442296743393</v>
+        <v>-0.145259216427803</v>
       </c>
     </row>
     <row r="14">
@@ -1252,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1759112775325775</v>
+        <v>-0.1095729246735573</v>
       </c>
     </row>
     <row r="15">
@@ -1260,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.146198570728302</v>
+        <v>-0.04154737293720245</v>
       </c>
     </row>
     <row r="16">
@@ -1268,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1467660814523697</v>
+        <v>-0.2679023742675781</v>
       </c>
     </row>
     <row r="17">
@@ -1276,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.04004297405481339</v>
+        <v>-0.1243881359696388</v>
       </c>
     </row>
   </sheetData>
@@ -1345,28 +1290,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002094776864396408</v>
+        <v>0.0004257438704371452</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001717077917419374</v>
+        <v>0.00321000162512064</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001805912237614393</v>
+        <v>-0.001580735319294035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001362974639050663</v>
+        <v>0.001143012661486864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002170570194721222</v>
+        <v>0.0007221477571874857</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00051289820112288</v>
+        <v>-0.0005564442835748196</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.002361807739362121</v>
+        <v>-0.001230326946824789</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006776505033485591</v>
+        <v>-0.0008811274892650545</v>
       </c>
     </row>
     <row r="3">
@@ -1374,28 +1319,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000812816375400871</v>
+        <v>0.001345128053799272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004738450050354004</v>
+        <v>-0.00051901675760746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001809410518035293</v>
+        <v>0.001333197462372482</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004006030969321728</v>
+        <v>0.0008259147289209068</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001787365530617535</v>
+        <v>0.002120068995282054</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001810013782233</v>
+        <v>0.0001150489479186945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008538743713870645</v>
+        <v>0.001636112225241959</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00248626759275794</v>
+        <v>0.0004682742292061448</v>
       </c>
     </row>
     <row r="4">
@@ -1403,28 +1348,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.001330192666500807</v>
+        <v>-0.0001890275161713362</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.000812018639408052</v>
+        <v>0.0002789330901578069</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001172401243820786</v>
+        <v>0.00102820701431483</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0003932780236937106</v>
+        <v>0.002868799027055502</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0007222014828585088</v>
+        <v>0.001206982415169477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00117522303480655</v>
+        <v>0.0008515111403539777</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.001800352009013295</v>
+        <v>-0.0009114088024944067</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0006300367531366646</v>
+        <v>-0.003234567353501916</v>
       </c>
     </row>
     <row r="5">
@@ -1432,28 +1377,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.001373135368339717</v>
+        <v>-0.001276223105378449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001792386756278574</v>
+        <v>-0.00131955835968256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005463276174850762</v>
+        <v>0.0008965727756731212</v>
       </c>
       <c r="E5" t="n">
-        <v>4.219837137497962e-05</v>
+        <v>0.001835799659602344</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001488431880716234</v>
+        <v>-0.002030889037996531</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001489227637648582</v>
+        <v>0.00060321792261675</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0004737522685900331</v>
+        <v>-0.001248321495950222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008718433091416955</v>
+        <v>7.960957009345293e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1461,28 +1406,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.438836524263024e-06</v>
+        <v>-0.001285404665395617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002547448966652155</v>
+        <v>-0.0003516683646012098</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00314404210075736</v>
+        <v>0.0003359930706210434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009425063035450876</v>
+        <v>7.461052155122161e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.001732863951474428</v>
+        <v>0.001142889144830406</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.003668683348223567</v>
+        <v>-0.001319227740168571</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.002144180703908205</v>
+        <v>0.0002040496910922229</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001550470595248044</v>
+        <v>0.002023798879235983</v>
       </c>
     </row>
     <row r="7">
@@ -1490,28 +1435,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001202382612973452</v>
+        <v>0.003712330013513565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001051744911819696</v>
+        <v>0.001754619646817446</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0003757786762434989</v>
+        <v>0.00270007667131722</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001276863040402532</v>
+        <v>0.0008108756737783551</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0003608737606555223</v>
+        <v>0.5044766664505005</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.002055463381111622</v>
+        <v>-0.000729413004592061</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0008601648733019829</v>
+        <v>-0.0005273222923278809</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002165622543543577</v>
+        <v>-0.0001105053815990686</v>
       </c>
     </row>
     <row r="8">
@@ -1519,28 +1464,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0008415131596848369</v>
+        <v>0.001511017209850252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002989611122757196</v>
+        <v>0.001569590880535543</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.889443956315517e-05</v>
+        <v>0.0005478874663822353</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001273041125386953</v>
+        <v>0.0006266160635277629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000916006974875927</v>
+        <v>0.002398142591118813</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002941380720585585</v>
+        <v>-0.001002942910417914</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005651815445162356</v>
+        <v>-0.004300784785300493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003139057196676731</v>
+        <v>0.004584688693284988</v>
       </c>
     </row>
     <row r="9">
@@ -1548,28 +1493,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0003583484794944525</v>
+        <v>-0.001377001404762268</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0005862626130692661</v>
+        <v>0.0008004480041563511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4695972800254822</v>
+        <v>-0.0006862427690066397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0012477618874982</v>
+        <v>-0.002065177541226149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002539423294365406</v>
+        <v>-0.0008538979454897344</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0001737079583108425</v>
+        <v>0.001198724494315684</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000108836917206645</v>
+        <v>0.002781515475362539</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001849610009230673</v>
+        <v>-0.00182345334906131</v>
       </c>
     </row>
     <row r="10">
@@ -1577,28 +1522,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.001151361619122326</v>
+        <v>0.00276298844255507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004320801235735416</v>
+        <v>-0.00186808267608285</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0008899163804017007</v>
+        <v>-0.000538468942977488</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001150536932982504</v>
+        <v>0.0009392142528668046</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0005125462193973362</v>
+        <v>-0.001761123188771307</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001802692655473948</v>
+        <v>-0.001373705454170704</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0001266300241695717</v>
+        <v>-0.0005240635946393013</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003080228343605995</v>
+        <v>-8.283986244350672e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1606,28 +1551,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001131546101532876</v>
+        <v>-0.0008443068945780396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001977641368284822</v>
+        <v>0.002712453715503216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002634655684232712</v>
+        <v>-0.0001248057233169675</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006748625892214477</v>
+        <v>-0.0002071057679131627</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0002005085116252303</v>
+        <v>0.001042706076987088</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0009525970672257245</v>
+        <v>0.001894383342005312</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0008308193646371365</v>
+        <v>0.0005259236786514521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.001337610650807619</v>
+        <v>-6.071201642043889e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1635,28 +1580,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.002896644175052643</v>
+        <v>-0.000325089757097885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002855589613318443</v>
+        <v>0.004066149238497019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001383486523991451</v>
+        <v>-6.132095586508512e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001121082459576428</v>
+        <v>-0.0003485917113721371</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.001480032107792795</v>
+        <v>-0.001125373179093003</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0009096961002796888</v>
+        <v>0.002427029656246305</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001857018913142383</v>
+        <v>-0.0009860221762210131</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001785331754945219</v>
+        <v>0.004253915976732969</v>
       </c>
     </row>
     <row r="13">
@@ -1664,28 +1609,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.595393642783165e-05</v>
+        <v>-0.001735712867230177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000384160375688225</v>
+        <v>0.001282535027712584</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00239297398366034</v>
+        <v>0.001218570512719452</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0008579844143241644</v>
+        <v>-0.0008323146612383425</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0007262114668264985</v>
+        <v>0.000249742268351838</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0003938286099582911</v>
+        <v>-0.0001662530121393502</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00119129428640008</v>
+        <v>0.001518073840998113</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0008039848180487752</v>
+        <v>0.0001865687663666904</v>
       </c>
     </row>
     <row r="14">
@@ -1693,28 +1638,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0001495324249844998</v>
+        <v>-2.390600275248289e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0007629565079696476</v>
+        <v>-0.0003351693158037961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000709091778844595</v>
+        <v>0.001965372590348125</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000480452086776495</v>
+        <v>0.0004781040479429066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003015930764377117</v>
+        <v>0.002604103880003095</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.471632074564695e-05</v>
+        <v>-0.001582060824148357</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001048370148055255</v>
+        <v>-0.001960770925506949</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0006650424911640584</v>
+        <v>-0.001191974151879549</v>
       </c>
     </row>
     <row r="15">
@@ -1722,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0009927954524755478</v>
+        <v>0.0002894493809435517</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005097747780382633</v>
+        <v>-0.0005645003984682262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002252201666124165</v>
+        <v>-0.0004396982258185744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003119839821010828</v>
+        <v>0.00196824548766017</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0003337120870128274</v>
+        <v>-0.0001823323545977473</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.001812319969758391</v>
+        <v>0.0003730212338268757</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0006624194793403149</v>
+        <v>-0.001234147464856505</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004489494021981955</v>
+        <v>-9.970218525268137e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1751,28 +1696,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0005172120872884989</v>
+        <v>0.001592710730619729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007963119423948228</v>
+        <v>0.0004439359763637185</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001707679126411676</v>
+        <v>-0.0008718136232346296</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.001471293624490499</v>
+        <v>0.0003822448197752237</v>
       </c>
       <c r="F16" t="n">
-        <v>1.9598170183599e-05</v>
+        <v>0.002682574559003115</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.091774700209498e-05</v>
+        <v>-0.0006329797324724495</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003369336249306798</v>
+        <v>0.0004423189093358815</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004092742688953876</v>
+        <v>9.354145731776953e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1780,28 +1725,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0005302944337017834</v>
+        <v>0.0002536310930736363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000101652774901595</v>
+        <v>0.0009437680128030479</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002588562434539199</v>
+        <v>0.004304369445890188</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.00105874240398407</v>
+        <v>-0.001371256075799465</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002012513810768723</v>
+        <v>0.0002956340322270989</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.001354238716885448</v>
+        <v>-0.0003569908440113068</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0003440578002482653</v>
+        <v>0.0005890206666663289</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.002400522120296955</v>
+        <v>0.0001489610876888037</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01774651929736137</v>
+        <v>1.361626029014587</v>
       </c>
     </row>
     <row r="3">
@@ -1843,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04745012149214745</v>
+        <v>-0.01658228039741516</v>
       </c>
     </row>
     <row r="4">
@@ -1851,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01319996640086174</v>
+        <v>-0.02555245719850063</v>
       </c>
     </row>
     <row r="5">
@@ -1859,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01061232853680849</v>
+        <v>-0.00861290842294693</v>
       </c>
     </row>
     <row r="6">
@@ -1867,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02631090395152569</v>
+        <v>-0.009949285537004471</v>
       </c>
     </row>
     <row r="7">
@@ -1875,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.007927700877189636</v>
+        <v>-0.2205437421798706</v>
       </c>
     </row>
     <row r="8">
@@ -1883,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.06693583726882935</v>
+        <v>-0.01229505520313978</v>
       </c>
     </row>
     <row r="9">
@@ -1891,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01140251290053129</v>
+        <v>-0.1172971725463867</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4604224264621735</v>
+        <v>1.58490777015686</v>
       </c>
     </row>
     <row r="3">
@@ -1933,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3924889862537384</v>
+        <v>-0.8679500818252563</v>
       </c>
     </row>
     <row r="4">
@@ -1941,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.8107967376709</v>
+        <v>-0.2899466156959534</v>
       </c>
     </row>
     <row r="5">
@@ -1949,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3421176671981812</v>
+        <v>-0.02905780263245106</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.50162273645401</v>
+        <v>-17.61491775512695</v>
       </c>
     </row>
     <row r="7">
@@ -1965,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.07770838588476181</v>
+        <v>0.01251402590423822</v>
       </c>
     </row>
     <row r="8">
@@ -1973,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.517314612865448</v>
+        <v>-0.1267200112342834</v>
       </c>
     </row>
     <row r="9">
@@ -1981,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3808645904064178</v>
+        <v>0.08595128357410431</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.261316776275635</v>
+        <v>1.138758063316345</v>
       </c>
     </row>
   </sheetData>
